--- a/biology/Botanique/Narangille/Narangille.xlsx
+++ b/biology/Botanique/Narangille/Narangille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum quitoense
-La narangille, Escuador's naranjille (anglais), ou Lulo (espagnol)[2] est le fruit de la Morelle de Quito, de son nom scientifique Solanum quitoense Lamarck.
+La narangille, Escuador's naranjille (anglais), ou Lulo (espagnol) est le fruit de la Morelle de Quito, de son nom scientifique Solanum quitoense Lamarck.
 C'est un fruit rond, de couleur orange lumineux quand il est entièrement mûr. La plante qui le produit appartient à la famille botanique des Solanacées, genre Solanum.
 Pressé, ce fruit produit un jus verdâtre et acide ; c'est souvent ainsi qu'il est consommé.
 Sa pulpe sert également à faire des confitures et des pâtisseries.
@@ -515,7 +527,9 @@
           <t>Origine et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ce fruit possède de nombreux noms locaux, notamment dans les pays andins à composante climatique tropicale où il pousse spontanément, entre 1200 et 2100 mètres d'altitude, dans les sous-bois frais et ombragés (cf. es:Solanum quitoense) :
 en Équateur c'est la naranjilla de Quito, ou le nuqui ;
@@ -550,7 +564,9 @@
           <t>Culture et reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante, qui pousse naturellement en sous-bois tempéré, est également cultivée, sous différentes variétés, dans les régions de la cordillère orientale des Andes, principalement en Équateur et en Colombie (Valle del Cauca), ainsi qu'au Costa Rica.
 La plante se reproduit très facilement à partir de ses graines. Elle croît rapidement et fructifie au bout de 10 à 12 mois. Sa hauteur peut atteindre 1,5 à 2,5 mètres.
@@ -583,7 +599,9 @@
           <t>Valeur nutritive</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon des analyses des fruits frais réalisées en Colombie et en Équateur, la valeur nutritive pour 100 g de la partie comestible est la suivante :
 Kilocalories 23
